--- a/Document/WorkLoad_Squad-Lazy.xlsx
+++ b/Document/WorkLoad_Squad-Lazy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTGreenwich\TopUp\DApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTGreenwich\TopUp\DApp\Web\EWSD-Squad_Lazy\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CC8B5C-494D-4681-9A23-E0AD469B14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749D8249-8121-4020-9553-608919DC56F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0B3B2CC3-EC36-4812-894D-7CE971EEE881}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>Member</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Ngô Minh Thư</t>
   </si>
   <si>
-    <t>Dev+Test</t>
-  </si>
-  <si>
     <t>Product backlog</t>
   </si>
   <si>
@@ -182,6 +179,147 @@
   </si>
   <si>
     <t>Supportor</t>
+  </si>
+  <si>
+    <t>Tools &amp; Technical</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>React JS</t>
+  </si>
+  <si>
+    <t>Front -End (UI &amp; UX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back -End </t>
+  </si>
+  <si>
+    <t>Node js</t>
+  </si>
+  <si>
+    <t>Solution design</t>
+  </si>
+  <si>
+    <t>Start UML</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Mongoose</t>
+  </si>
+  <si>
+    <t>BackLog</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>As an admin, I want to login to the website with a separate admin account.</t>
+  </si>
+  <si>
+    <t>As a QA manager, I want to login to the website with an account registered at the website or an open account like Facebook or Gmail.</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>As an Staff, I would like to login to the website with an account registered at the website or with an open account such as Facebook or Gmail.</t>
+  </si>
+  <si>
+    <t>As a Quality Assurance Manager, I want to oversee the process</t>
+  </si>
+  <si>
+    <t>As a QA coordinator, I responsible for managing the process for my Department, and for encouraging staff to contribute.</t>
+  </si>
+  <si>
+    <t>Post Ideas</t>
+  </si>
+  <si>
+    <t>Management system</t>
+  </si>
+  <si>
+    <t>As a staff (academic and support), I want to have the opportunity to submit one or more ideas.</t>
+  </si>
+  <si>
+    <t>QA manager</t>
+  </si>
+  <si>
+    <t>As a QA manager, I want to all staff must agree to Terms and Conditions before they can submit.</t>
+  </si>
+  <si>
+    <t>As a staff,  I want to upload documents to support my ideas.</t>
+  </si>
+  <si>
+    <t>QA manager &amp; QA coordinator</t>
+  </si>
+  <si>
+    <t>As both QA manager &amp; QA coordinator, I want all ideas can be categorised (tagged) from a list of categories at the point when they are submitted</t>
+  </si>
+  <si>
+    <t>Management categories</t>
+  </si>
+  <si>
+    <t>Interation with submited ideas</t>
+  </si>
+  <si>
+    <t>As a staff, I want to see all submitted ideas and can comment on any idea.  They can also give the Thumbs Up or Thumbs Down for any idea, but only once for any idea.</t>
+  </si>
+  <si>
+    <t>As a staff, I want ideas and comments to be posted anonymously.</t>
+  </si>
+  <si>
+    <t>As a QA coordinator, I want all new ideas are disabled after a closure date for new ideas, but comments can continue to be done until a final closure date.</t>
+  </si>
+  <si>
+    <t>As a QA coordinator, I want an idea is submitted the system emails a notification to me.</t>
+  </si>
+  <si>
+    <t>As a staff, I want to receive an automatic email notification whenever a comment is submitted to any of my ideas.</t>
+  </si>
+  <si>
+    <t>List ideas</t>
+  </si>
+  <si>
+    <t>As a QA manager, I want to have a lists of Most Popular Ideas (+1 for Thumbs Up, -1 for Thumbs Down), Most Viewed Ideas, Latest Ideas and Latest Comments must be made available to all users.</t>
+  </si>
+  <si>
+    <t>As a QA manager, I want to have 5 ideas per page.</t>
+  </si>
+  <si>
+    <t>As a QA manager, I want to download all the data after the final closure date in a CSV file for transfer out of the system.</t>
+  </si>
+  <si>
+    <t>Download file</t>
+  </si>
+  <si>
+    <t>As a staff, I want to download a submited idea in a ZIP file.</t>
+  </si>
+  <si>
+    <t>As a Admin, I want to maintain any system data, e.g. closure dates for each academic year, staff details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical analysis </t>
+  </si>
+  <si>
+    <t>As a QA manager, I want to have a graph on the homepage of the website to show the statistics (Ex: number of ideas of each department,...)</t>
+  </si>
+  <si>
+    <t>Non-feature</t>
+  </si>
+  <si>
+    <t>As a QA manager,  I want the interface must be suitable for all devices (eg mobile phones, tablets, desktops).</t>
   </si>
 </sst>
 </file>
@@ -344,23 +482,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -374,17 +502,44 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -700,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916D977-17C8-43AB-9767-441554121CC3}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -712,203 +867,277 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="18">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="18">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+      <c r="B31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="18">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="18">
         <v>5</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="17">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -920,7 +1149,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,151 +1159,151 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15">
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
@@ -1176,151 +1405,350 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA034D6-C706-4B14-9AF6-ADFB4D6CE9CC}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="26" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="243.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="18">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="18">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="18">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1330,5 +1758,6 @@
     <hyperlink ref="F1" r:id="rId1" location=":~:text=V%C3%AD%20d%E1%BB%A5%20v%E1%BB%81%20User%20Story%20L%C3%A0%20m%E1%BB%99t%20nh%C3%A0,t%C6%B0%203%20ch%E1%BB%AF%20C%20c%E1%BB%A7a%20m%E1%BB%99t%20User%20Stories" xr:uid="{094476E4-10C7-47FC-9FF0-8B1C8ADBF400}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/WorkLoad_Squad-Lazy.xlsx
+++ b/Document/WorkLoad_Squad-Lazy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTGreenwich\TopUp\DApp\Web\EWSD-Squad_Lazy\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749D8249-8121-4020-9553-608919DC56F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88880C48-46A9-442B-AD17-D41F0B291BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0B3B2CC3-EC36-4812-894D-7CE971EEE881}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B3B2CC3-EC36-4812-894D-7CE971EEE881}"/>
   </bookViews>
   <sheets>
     <sheet name="Word load" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>Member</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Requiredment analystisc</t>
   </si>
   <si>
-    <t>Feartures</t>
-  </si>
-  <si>
     <t>Actors</t>
   </si>
   <si>
@@ -175,12 +172,6 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>Acacdemic</t>
-  </si>
-  <si>
-    <t>Supportor</t>
-  </si>
-  <si>
     <t>Tools &amp; Technical</t>
   </si>
   <si>
@@ -320,6 +311,9 @@
   </si>
   <si>
     <t>As a QA manager,  I want the interface must be suitable for all devices (eg mobile phones, tablets, desktops).</t>
+  </si>
+  <si>
+    <t>Guest</t>
   </si>
 </sst>
 </file>
@@ -516,6 +510,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,9 +532,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -857,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A916D977-17C8-43AB-9767-441554121CC3}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -874,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -885,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -896,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -907,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -918,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -926,21 +920,21 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
@@ -1011,21 +1005,21 @@
       <c r="F16" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -1061,21 +1055,21 @@
       <c r="C25" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -1083,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -1094,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -1105,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -1116,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -1127,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1407,24 +1401,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA034D6-C706-4B14-9AF6-ADFB4D6CE9CC}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="19" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="243.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1433,7 +1427,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
@@ -1452,157 +1446,157 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>39</v>
@@ -1611,140 +1605,140 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18">
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
